--- a/testData/omniture2.xlsx
+++ b/testData/omniture2.xlsx
@@ -47,7 +47,7 @@
     <t>utag_data.friendly_url  :</t>
   </si>
   <si>
-    <t>http://qa-www.essence.com/home-page</t>
+    <t>http://www.essence.com/home-page</t>
   </si>
   <si>
     <t>utag_data.tag_keywords  :</t>
